--- a/HTzh信息管理.xlsx
+++ b/HTzh信息管理.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" tabRatio="883" firstSheet="2" activeTab="5"/>
+    <workbookView windowWidth="28215" windowHeight="11490" tabRatio="883" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="现货仓单" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <sheet name="书统计" sheetId="22" r:id="rId16"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">有孚机房.生产!$A$1:$M$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">有孚机房.生产!$A$1:$M$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">本地机房.生产.测试!$A$1:$M$46</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">DNAT!$A$1:$L$38</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">服务器应用表!$A$1:$K$10</definedName>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610">
   <si>
     <t>生产环境：科择机房</t>
   </si>
@@ -250,7 +250,14 @@
     <t xml:space="preserve">http://192.168.30.2/adminweb,  </t>
   </si>
   <si>
-    <t>username: wangyuehui, code:111111</t>
+    <t xml:space="preserve">username:交易后台管理账号
+wangyuehui,
+zhangdi </t>
+  </si>
+  <si>
+    <t>code:
+111111
+qq1952783</t>
   </si>
   <si>
     <t>目前华通官网和华通白银网 都解析到了 云盾上面：</t>
@@ -1225,7 +1232,9 @@
   </si>
   <si>
     <t xml:space="preserve">
-117.144.238.90：3389（移动地址）shhtby5dx2.pobo.com.cn</t>
+117.144.238.90：3389
+（172.20.40.15:13170 内网地址）
+（移动地址）shhtby5dx2.pobo.com.cn</t>
   </si>
   <si>
     <t>htyf#21D3.hq</t>
@@ -1244,7 +1253,7 @@
     <t>htby#2017063</t>
   </si>
   <si>
-    <t>有孚机房mweb</t>
+    <t>有孚机房mweb05， （mweb01没有用上）</t>
   </si>
   <si>
     <t>行情4</t>
@@ -1258,6 +1267,9 @@
   </si>
   <si>
     <t>htby#2017064</t>
+  </si>
+  <si>
+    <t>手机端</t>
   </si>
   <si>
     <t>手机端行情服务器在线人数查看</t>
@@ -2275,6 +2287,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>Oracle DBA</t>
     </r>
     <r>
@@ -2296,12 +2314,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="43">
+  <fonts count="42">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2392,21 +2410,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <strike/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
@@ -2440,21 +2443,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2465,14 +2462,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2491,17 +2480,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2512,31 +2508,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2552,6 +2525,14 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -2562,6 +2543,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2582,6 +2571,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF666666"/>
       <name val="宋体"/>
@@ -2594,12 +2590,23 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2608,7 +2615,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="43">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2677,31 +2684,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2719,7 +2708,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2731,7 +2726,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2743,13 +2744,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2761,19 +2792,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2785,13 +2810,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2803,37 +2822,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2845,19 +2852,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2969,17 +2964,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2995,15 +2984,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3056,6 +3036,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -3069,150 +3064,150 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="30" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="31" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3330,9 +3325,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3348,9 +3340,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3362,39 +3351,35 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="10" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="15" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -3613,7 +3598,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="590550" y="5143500"/>
+          <a:off x="590550" y="5314950"/>
           <a:ext cx="11008995" cy="6437630"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3907,7 +3892,6 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -3917,7 +3901,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -3938,17 +3922,17 @@
       </c>
     </row>
     <row r="3" spans="2:2">
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="71" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="2:2">
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="71" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:2">
-      <c r="B5" s="75" t="s">
+      <c r="B5" s="71" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3956,12 +3940,12 @@
       <c r="B6" s="48"/>
     </row>
     <row r="7" spans="2:2">
-      <c r="B7" s="75" t="s">
+      <c r="B7" s="71" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="2:2">
-      <c r="B8" s="75" t="s">
+      <c r="B8" s="71" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3969,7 +3953,7 @@
       <c r="B9" s="48"/>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="75" t="s">
+      <c r="B10" s="71" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3980,17 +3964,17 @@
       <c r="B12" s="48"/>
     </row>
     <row r="13" spans="2:2">
-      <c r="B13" s="75" t="s">
+      <c r="B13" s="71" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="2:2">
-      <c r="B14" s="75" t="s">
+      <c r="B14" s="71" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="2:2">
-      <c r="B15" s="75" t="s">
+      <c r="B15" s="71" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3998,27 +3982,27 @@
       <c r="B16" s="48"/>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="75" t="s">
+      <c r="B17" s="71" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="75" t="s">
+      <c r="B18" s="71" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="75" t="s">
+      <c r="B19" s="71" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="75" t="s">
+      <c r="B20" s="71" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="75" t="s">
+      <c r="B21" s="71" t="s">
         <v>15</v>
       </c>
     </row>
@@ -4047,10 +4031,10 @@
   <sheetData>
     <row r="1" ht="15" customHeight="1" spans="2:4">
       <c r="B1" s="24" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="D1" s="24" t="s">
         <v>20</v>
@@ -4058,120 +4042,120 @@
     </row>
     <row r="2" spans="2:4">
       <c r="B2" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="C2" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D2" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="3" spans="2:4">
       <c r="B3" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="C3" t="s">
         <v>477</v>
       </c>
-      <c r="C3" t="s">
-        <v>475</v>
-      </c>
       <c r="D3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="30" ht="18.75" spans="2:4">
       <c r="B30" s="25" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="31" ht="18.75" spans="2:6">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6">
       <c r="B31" s="26" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="E31" s="27">
         <v>15800583925</v>
@@ -4180,20 +4164,20 @@
     </row>
     <row r="32" spans="2:6">
       <c r="B32" s="28" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
     </row>
     <row r="33" spans="2:6">
       <c r="B33" s="29" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
@@ -4201,18 +4185,18 @@
     <row r="34" spans="2:6">
       <c r="B34" s="28"/>
       <c r="D34" s="5" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="28" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
   </sheetData>
@@ -4251,14 +4235,14 @@
     </row>
     <row r="3" ht="129.75" customHeight="1" spans="1:3">
       <c r="A3" s="12" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
     </row>
     <row r="4" ht="96" customHeight="1" spans="1:3">
       <c r="A4" s="14" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -4270,91 +4254,91 @@
     </row>
     <row r="6" ht="14.25" spans="1:4">
       <c r="A6" s="15" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="1:4">
       <c r="A7" s="15" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:4">
       <c r="A8" s="15" t="s">
+        <v>517</v>
+      </c>
+      <c r="B8" s="17" t="s">
         <v>515</v>
       </c>
-      <c r="B8" s="17" t="s">
-        <v>513</v>
-      </c>
       <c r="C8" s="17" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:4">
       <c r="A9" s="18" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="1:4">
       <c r="A10" s="15" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="11" ht="14.25" spans="1:4">
       <c r="A11" s="15" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="1:4">
       <c r="A12" s="15" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B12" s="21"/>
       <c r="C12" s="17"/>
@@ -4362,7 +4346,7 @@
     </row>
     <row r="13" ht="14.25" spans="1:4">
       <c r="A13" s="15" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="B13" s="22"/>
       <c r="C13" s="17"/>
@@ -4370,7 +4354,7 @@
     </row>
     <row r="14" ht="14.25" spans="1:4">
       <c r="A14" s="15" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="B14" s="22"/>
       <c r="C14" s="17"/>
@@ -4378,7 +4362,7 @@
     </row>
     <row r="15" ht="14.25" spans="1:4">
       <c r="A15" s="15" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B15" s="22"/>
       <c r="C15" s="17"/>
@@ -4386,7 +4370,7 @@
     </row>
     <row r="16" ht="14.25" spans="1:4">
       <c r="A16" s="15" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="B16" s="22"/>
       <c r="C16" s="17"/>
@@ -4394,7 +4378,7 @@
     </row>
     <row r="17" ht="14.25" spans="1:4">
       <c r="A17" s="15" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="B17" s="22"/>
       <c r="C17" s="17"/>
@@ -4402,7 +4386,7 @@
     </row>
     <row r="18" ht="14.25" spans="1:4">
       <c r="A18" s="15" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B18" s="22"/>
       <c r="C18" s="17"/>
@@ -4410,7 +4394,7 @@
     </row>
     <row r="19" ht="14.25" spans="1:4">
       <c r="A19" s="15" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="B19" s="22"/>
       <c r="C19" s="17"/>
@@ -4418,7 +4402,7 @@
     </row>
     <row r="20" ht="14.25" spans="1:4">
       <c r="A20" s="15" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="B20" s="22"/>
       <c r="C20" s="17"/>
@@ -4426,7 +4410,7 @@
     </row>
     <row r="21" ht="14.25" spans="1:4">
       <c r="A21" s="15" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="B21" s="22"/>
       <c r="C21" s="17"/>
@@ -4434,7 +4418,7 @@
     </row>
     <row r="22" ht="14.25" spans="1:4">
       <c r="A22" s="15" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B22" s="22"/>
       <c r="C22" s="17"/>
@@ -4442,7 +4426,7 @@
     </row>
     <row r="23" ht="14.25" spans="1:4">
       <c r="A23" s="15" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B23" s="22"/>
       <c r="C23" s="17"/>
@@ -4450,7 +4434,7 @@
     </row>
     <row r="24" ht="14.25" spans="1:4">
       <c r="A24" s="15" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="B24" s="22"/>
       <c r="C24" s="17"/>
@@ -4458,7 +4442,7 @@
     </row>
     <row r="25" ht="14.25" spans="1:4">
       <c r="A25" s="15" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="B25" s="22"/>
       <c r="C25" s="17"/>
@@ -4466,7 +4450,7 @@
     </row>
     <row r="26" ht="14.25" spans="1:4">
       <c r="A26" s="15" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="B26" s="22"/>
       <c r="C26" s="17"/>
@@ -4474,7 +4458,7 @@
     </row>
     <row r="27" ht="14.25" spans="1:4">
       <c r="A27" s="15" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="B27" s="22"/>
       <c r="C27" s="17"/>
@@ -4482,7 +4466,7 @@
     </row>
     <row r="28" ht="14.25" spans="1:4">
       <c r="A28" s="15" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="B28" s="22"/>
       <c r="C28" s="17"/>
@@ -4490,7 +4474,7 @@
     </row>
     <row r="29" ht="14.25" spans="1:4">
       <c r="A29" s="15" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="B29" s="22"/>
       <c r="C29" s="17"/>
@@ -4498,7 +4482,7 @@
     </row>
     <row r="30" ht="14.25" spans="1:4">
       <c r="A30" s="15" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="B30" s="22"/>
       <c r="C30" s="17"/>
@@ -4506,7 +4490,7 @@
     </row>
     <row r="31" ht="14.25" spans="1:4">
       <c r="A31" s="15" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="B31" s="22"/>
       <c r="C31" s="17"/>
@@ -4514,7 +4498,7 @@
     </row>
     <row r="32" ht="14.25" spans="1:4">
       <c r="A32" s="15" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="B32" s="22"/>
       <c r="C32" s="17"/>
@@ -4522,7 +4506,7 @@
     </row>
     <row r="33" ht="14.25" spans="1:4">
       <c r="A33" s="15" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="B33" s="22"/>
       <c r="C33" s="17"/>
@@ -4530,7 +4514,7 @@
     </row>
     <row r="34" ht="14.25" spans="1:4">
       <c r="A34" s="15" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B34" s="22"/>
       <c r="C34" s="17"/>
@@ -4538,7 +4522,7 @@
     </row>
     <row r="35" ht="14.25" spans="1:4">
       <c r="A35" s="15" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="B35" s="22"/>
       <c r="C35" s="17"/>
@@ -4546,7 +4530,7 @@
     </row>
     <row r="36" ht="14.25" spans="1:4">
       <c r="A36" s="15" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="B36" s="22"/>
       <c r="C36" s="17"/>
@@ -4554,7 +4538,7 @@
     </row>
     <row r="37" ht="14.25" spans="1:4">
       <c r="A37" s="15" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B37" s="22"/>
       <c r="C37" s="17"/>
@@ -4562,7 +4546,7 @@
     </row>
     <row r="38" ht="14.25" spans="1:4">
       <c r="A38" s="15" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="B38" s="23"/>
       <c r="C38" s="17"/>
@@ -4589,10 +4573,10 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -4602,232 +4586,246 @@
     <col min="3" max="3" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="48" customHeight="1"/>
+    <row r="1" spans="1:3">
+      <c r="A1" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>551</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>549</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>138</v>
+      <c r="A2" t="s">
+        <v>552</v>
+      </c>
+      <c r="B2" s="4">
+        <v>10007</v>
+      </c>
+      <c r="C2" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>550</v>
-      </c>
-      <c r="B3" s="4">
-        <v>10007</v>
+      <c r="A3" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="B3" s="8">
+        <v>10010</v>
       </c>
       <c r="C3" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="5" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>266</v>
+      </c>
+      <c r="B7" t="s">
         <v>551</v>
       </c>
-      <c r="B4" s="8">
-        <v>10010</v>
-      </c>
-      <c r="C4" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="C7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>265</v>
-      </c>
-      <c r="B8" t="s">
-        <v>549</v>
-      </c>
-      <c r="C8" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>425</v>
-      </c>
+        <v>427</v>
+      </c>
+      <c r="B8"/>
+    </row>
+    <row r="9" spans="2:2">
       <c r="B9"/>
     </row>
-    <row r="10" spans="2:2">
-      <c r="B10"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>552</v>
-      </c>
-      <c r="B11">
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>554</v>
+      </c>
+      <c r="B10">
         <v>11099</v>
       </c>
-      <c r="C11" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2">
+      <c r="C10" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>137</v>
+      </c>
       <c r="B12"/>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>136</v>
-      </c>
+    <row r="13" spans="2:2">
       <c r="B13"/>
     </row>
-    <row r="14" spans="2:2">
-      <c r="B14"/>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>556</v>
+      </c>
+      <c r="B14">
+        <v>9999</v>
+      </c>
+      <c r="C14" t="s">
+        <v>557</v>
+      </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="B15">
-        <v>9999</v>
+        <v>10000</v>
       </c>
       <c r="C15" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="B16">
-        <v>10000</v>
+        <v>10001</v>
       </c>
       <c r="C16" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>550</v>
+        <v>561</v>
       </c>
       <c r="B17">
-        <v>10001</v>
+        <v>10002</v>
       </c>
       <c r="C17" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="B18">
-        <v>10002</v>
+        <v>10003</v>
       </c>
       <c r="C18" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>561</v>
-      </c>
-      <c r="B19">
-        <v>10003</v>
-      </c>
-      <c r="C19" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>138</v>
+      </c>
       <c r="B20"/>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>137</v>
-      </c>
+    <row r="21" spans="2:2">
       <c r="B21"/>
     </row>
-    <row r="22" spans="2:2">
-      <c r="B22"/>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>565</v>
+      </c>
+      <c r="B22">
+        <v>10004</v>
+      </c>
+      <c r="C22" t="s">
+        <v>566</v>
+      </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="B23">
-        <v>10004</v>
+        <v>10005</v>
       </c>
       <c r="C23" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="B24">
-        <v>10005</v>
+        <v>10006</v>
       </c>
       <c r="C24" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="B25">
-        <v>10006</v>
+        <v>10007</v>
       </c>
       <c r="C25" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="B26">
-        <v>10007</v>
+        <v>10008</v>
       </c>
       <c r="C26" t="s">
-        <v>558</v>
+        <v>573</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="B27">
-        <v>10008</v>
+        <v>10009</v>
       </c>
       <c r="C27" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>572</v>
+        <v>553</v>
       </c>
       <c r="B28">
-        <v>10009</v>
+        <v>10010</v>
       </c>
       <c r="C28" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>551</v>
-      </c>
-      <c r="B29">
-        <v>10010</v>
-      </c>
-      <c r="C29" t="s">
-        <v>574</v>
-      </c>
+        <v>576</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29"/>
     </row>
     <row r="30" spans="2:2">
       <c r="B30"/>
     </row>
-    <row r="31" spans="2:2">
-      <c r="B31"/>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>438</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4852,19 +4850,19 @@
   <sheetData>
     <row r="3" spans="2:13">
       <c r="B3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>24</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
@@ -4875,7 +4873,7 @@
     <row r="4" spans="5:13">
       <c r="E4" s="5"/>
       <c r="F4" s="5" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
@@ -4887,7 +4885,7 @@
     </row>
     <row r="5" spans="2:13">
       <c r="B5" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -4901,16 +4899,16 @@
     </row>
     <row r="6" spans="5:13">
       <c r="E6" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>24</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
@@ -4931,14 +4929,14 @@
     </row>
     <row r="8" spans="2:13">
       <c r="B8" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
@@ -4949,10 +4947,10 @@
     </row>
     <row r="9" spans="5:13">
       <c r="E9" s="5" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
@@ -4964,13 +4962,13 @@
     </row>
     <row r="10" spans="2:13">
       <c r="B10" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
@@ -4982,27 +4980,27 @@
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="24" spans="2:2">
@@ -5012,27 +5010,27 @@
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
   </sheetData>
@@ -5058,16 +5056,16 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="B2" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4"/>
-      <c r="B3" s="76" t="s">
-        <v>596</v>
+      <c r="B3" s="72" t="s">
+        <v>598</v>
       </c>
     </row>
   </sheetData>
@@ -5096,46 +5094,46 @@
   <sheetData>
     <row r="1" ht="28.5" customHeight="1" spans="2:2">
       <c r="B1" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="2" ht="35.25" customHeight="1" spans="2:2">
       <c r="B2" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="3" ht="35.1" customHeight="1" spans="2:2">
       <c r="B3" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="4" ht="142.5" customHeight="1" spans="2:3">
       <c r="B4" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="5" ht="43.5" customHeight="1" spans="2:3">
       <c r="B5" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="C5" s="3"/>
     </row>
     <row r="6" ht="35.1" customHeight="1" spans="2:2">
       <c r="B6" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="7" ht="35.1" customHeight="1" spans="2:2">
       <c r="B7" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="8" ht="35.1" customHeight="1" spans="2:2">
       <c r="B8" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="9" ht="35.1" customHeight="1"/>
@@ -5168,12 +5166,11 @@
   <sheetData>
     <row r="6" ht="74" customHeight="1" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="B6" t="s">
-        <v>607</v>
-      </c>
-      <c r="C6"/>
+        <v>609</v>
+      </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="4:4">
@@ -5190,8 +5187,8 @@
   <sheetPr/>
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -5199,7 +5196,7 @@
     <col min="1" max="1" width="61.75" style="31" customWidth="1"/>
     <col min="2" max="2" width="16.625" style="31" customWidth="1"/>
     <col min="3" max="3" width="14.5" style="31" customWidth="1"/>
-    <col min="4" max="4" width="22" style="31" customWidth="1"/>
+    <col min="4" max="4" width="25.5" style="31" customWidth="1"/>
     <col min="5" max="5" width="22.125" style="31" customWidth="1"/>
     <col min="6" max="16384" width="9" style="31"/>
   </cols>
@@ -5276,7 +5273,7 @@
       <c r="A7" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="66" t="s">
+      <c r="D7" s="62" t="s">
         <v>32</v>
       </c>
       <c r="E7" s="31" t="s">
@@ -5290,7 +5287,7 @@
       <c r="A8" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="66" t="s">
+      <c r="D8" s="62" t="s">
         <v>35</v>
       </c>
       <c r="E8" s="31" t="s">
@@ -5304,7 +5301,7 @@
       <c r="A9" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="66" t="s">
+      <c r="D9" s="62" t="s">
         <v>37</v>
       </c>
       <c r="E9" s="31">
@@ -5318,9 +5315,7 @@
       <c r="A10" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="66" t="s">
+      <c r="D10" s="62" t="s">
         <v>39</v>
       </c>
       <c r="E10" s="31">
@@ -5330,16 +5325,16 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" s="65" customFormat="1" ht="27" spans="1:5">
-      <c r="A11" s="67" t="s">
+    <row r="11" s="61" customFormat="1" ht="27" spans="1:5">
+      <c r="A11" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="68"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="69" t="s">
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="70">
+      <c r="E11" s="65">
         <v>111111</v>
       </c>
     </row>
@@ -5347,10 +5342,10 @@
       <c r="A12" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="66" t="s">
+      <c r="D12" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="51">
+      <c r="E12" s="50">
         <v>111111</v>
       </c>
     </row>
@@ -5358,10 +5353,10 @@
       <c r="A13" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="66" t="s">
+      <c r="D13" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="51">
+      <c r="E13" s="50">
         <v>111111</v>
       </c>
     </row>
@@ -5369,10 +5364,10 @@
       <c r="A14" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="66" t="s">
+      <c r="D14" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="51">
+      <c r="E14" s="50">
         <v>111111</v>
       </c>
     </row>
@@ -5380,10 +5375,10 @@
       <c r="A15" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="66" t="s">
+      <c r="D15" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="51">
+      <c r="E15" s="50">
         <v>11076</v>
       </c>
       <c r="F15" s="31" t="s">
@@ -5400,93 +5395,96 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="58" t="s">
+    <row r="20" ht="70" customHeight="1" spans="1:5">
+      <c r="A20" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="31" t="s">
+      <c r="D20" s="66" t="s">
         <v>51</v>
       </c>
+      <c r="E20" s="66" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="21" ht="14.25" spans="1:1">
-      <c r="A21" s="71"/>
+      <c r="A21" s="67"/>
     </row>
     <row r="24" ht="14.25" spans="1:1">
-      <c r="A24" s="72" t="s">
-        <v>52</v>
+      <c r="A24" s="68" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="25" ht="14.25" spans="1:1">
-      <c r="A25" s="73" t="s">
-        <v>53</v>
+      <c r="A25" s="69" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="26" ht="14.25" spans="1:1">
-      <c r="A26" s="72" t="s">
-        <v>54</v>
+      <c r="A26" s="68" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27"/>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="74" t="s">
-        <v>55</v>
+      <c r="A28" s="70" t="s">
+        <v>56</v>
       </c>
       <c r="B28" s="31" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" ht="14.25" spans="1:2">
-      <c r="A29" s="73" t="s">
+      <c r="A29" s="69" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="31" t="s">
         <v>57</v>
-      </c>
-      <c r="B29" s="31" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B33"/>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B34"/>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B35"/>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B36"/>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B37"/>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B38"/>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B39"/>
     </row>
@@ -5496,25 +5494,26 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B41"/>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B42"/>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B43"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A28" r:id="rId1" display="华通官网：www.huatongsilver.com 真实IP地址： 122.144.131.128"/>
+    <hyperlink ref="B20" r:id="rId2" display="http://192.168.30.2/adminweb,  "/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -5528,7 +5527,7 @@
   <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5542,166 +5541,166 @@
   <sheetData>
     <row r="1" s="30" customFormat="1" ht="14.25" spans="1:13">
       <c r="A1" s="30" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="E1" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="E1" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="G1" s="50" t="s">
+      <c r="F1" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="H1" s="50" t="s">
+      <c r="G1" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="J1" s="50" t="s">
+      <c r="I1" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="J1" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="50" t="s">
+      <c r="K1" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="50" t="s">
-        <v>74</v>
+      <c r="L1" s="49" t="s">
+        <v>75</v>
       </c>
       <c r="M1" s="30" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" s="63" customFormat="1" ht="24.75" customHeight="1" spans="1:13">
-      <c r="A2" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
+    </row>
+    <row r="2" s="59" customFormat="1" ht="24.75" customHeight="1" spans="1:13">
+      <c r="A2" s="60" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="8:11">
       <c r="H5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J5" t="s">
         <v>24</v>
       </c>
       <c r="K5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="10:11">
       <c r="J6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M4"/>
+  <autoFilter ref="A1:M6"/>
   <mergeCells count="1">
     <mergeCell ref="A2:M2"/>
   </mergeCells>
@@ -5735,254 +5734,254 @@
   <sheetData>
     <row r="1" s="30" customFormat="1" ht="14.25" spans="1:13">
       <c r="A1" s="30" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="E1" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="E1" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="G1" s="50" t="s">
+      <c r="F1" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="H1" s="50" t="s">
+      <c r="G1" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="J1" s="50" t="s">
+      <c r="I1" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="J1" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="50" t="s">
+      <c r="K1" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="50" t="s">
-        <v>74</v>
+      <c r="L1" s="49" t="s">
+        <v>75</v>
       </c>
       <c r="M1" s="30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:13">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D2"/>
       <c r="E2"/>
       <c r="F2"/>
       <c r="G2"/>
       <c r="H2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I2"/>
       <c r="J2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L2"/>
       <c r="M2" s="31" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="31" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F3" s="31" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="F4" s="31" t="s">
         <v>107</v>
-      </c>
-      <c r="C4" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="D4" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="E4" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="F4" s="31" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="31" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D5" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="62" t="s">
-        <v>111</v>
+      <c r="E5" s="58" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" s="31" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" s="31" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="31" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="31" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="31" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="31" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" ht="30" customHeight="1" spans="1:4">
       <c r="A20" s="31" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" ht="121.5" spans="1:4">
       <c r="A21" s="31" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="31" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D22" s="31" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" s="31" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="31" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B25" s="31" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="31" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B27" s="31" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J27" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="K27" s="62" t="s">
-        <v>111</v>
+      <c r="K27" s="58" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="28" spans="3:11">
       <c r="C28" s="31" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J28" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="K28" s="62" t="s">
-        <v>111</v>
+      <c r="K28" s="58" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -6025,348 +6024,348 @@
   <sheetData>
     <row r="1" s="30" customFormat="1" ht="14.25" spans="1:13">
       <c r="A1" s="30" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="E1" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="E1" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="G1" s="50" t="s">
+      <c r="F1" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="H1" s="50" t="s">
+      <c r="G1" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="J1" s="50" t="s">
+      <c r="I1" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="J1" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="50" t="s">
+      <c r="K1" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="50" t="s">
-        <v>74</v>
+      <c r="L1" s="49" t="s">
+        <v>75</v>
       </c>
       <c r="M1" s="30" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" ht="36" customHeight="1" spans="1:9">
       <c r="A2" s="31" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G2" s="31" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H2" s="31" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I2" s="31" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" ht="57" spans="1:13">
       <c r="A3" s="31" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="E3" s="56" t="s">
         <v>146</v>
       </c>
-      <c r="F3" s="56" t="s">
+      <c r="E3" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="G3" s="57" t="s">
+      <c r="F3" s="54" t="s">
         <v>148</v>
       </c>
-      <c r="H3" s="56" t="s">
+      <c r="G3" s="55" t="s">
         <v>149</v>
       </c>
-      <c r="I3" s="56" t="s">
+      <c r="H3" s="54" t="s">
         <v>150</v>
       </c>
-      <c r="J3" s="56" t="s">
+      <c r="I3" s="54" t="s">
+        <v>151</v>
+      </c>
+      <c r="J3" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="56" t="s">
-        <v>151</v>
-      </c>
-      <c r="L3" s="56" t="s">
+      <c r="K3" s="54" t="s">
         <v>152</v>
       </c>
+      <c r="L3" s="54" t="s">
+        <v>153</v>
+      </c>
       <c r="M3" s="31" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" s="32" customFormat="1" ht="57" spans="1:12">
       <c r="A4" s="31" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="E4" s="56" t="s">
-        <v>154</v>
-      </c>
-      <c r="F4" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="E4" s="54" t="s">
         <v>155</v>
       </c>
-      <c r="G4" s="57" t="s">
+      <c r="F4" s="54" t="s">
         <v>156</v>
       </c>
-      <c r="H4" s="56" t="s">
+      <c r="G4" s="55" t="s">
         <v>157</v>
       </c>
-      <c r="I4" s="56" t="s">
+      <c r="H4" s="54" t="s">
         <v>158</v>
       </c>
-      <c r="J4" s="56" t="s">
+      <c r="I4" s="54" t="s">
         <v>159</v>
       </c>
-      <c r="K4" s="56" t="s">
-        <v>151</v>
-      </c>
-      <c r="L4" s="56" t="s">
+      <c r="J4" s="54" t="s">
         <v>160</v>
+      </c>
+      <c r="K4" s="54" t="s">
+        <v>152</v>
+      </c>
+      <c r="L4" s="54" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="5" s="32" customFormat="1" ht="27.75" customHeight="1" spans="1:13">
       <c r="A5" s="31" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56" t="s">
         <v>162</v>
       </c>
-      <c r="G5" s="57"/>
-      <c r="H5" s="56" t="s">
+      <c r="E5" s="54"/>
+      <c r="F5" s="54" t="s">
         <v>163</v>
       </c>
-      <c r="I5" s="56" t="s">
+      <c r="G5" s="55"/>
+      <c r="H5" s="54" t="s">
         <v>164</v>
       </c>
-      <c r="J5" s="56" t="s">
+      <c r="I5" s="54" t="s">
         <v>165</v>
       </c>
-      <c r="K5" s="59">
+      <c r="J5" s="54" t="s">
+        <v>166</v>
+      </c>
+      <c r="K5" s="57">
         <v>123456</v>
       </c>
-      <c r="L5" s="56"/>
+      <c r="L5" s="54"/>
       <c r="M5" s="31" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" s="32" customFormat="1" ht="27.75" customHeight="1" spans="1:13">
       <c r="A6" s="31" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>166</v>
-      </c>
-      <c r="E6" s="56" t="s">
         <v>167</v>
       </c>
-      <c r="F6" s="56" t="s">
+      <c r="E6" s="54" t="s">
         <v>168</v>
       </c>
-      <c r="G6" s="57" t="s">
+      <c r="F6" s="54" t="s">
         <v>169</v>
       </c>
-      <c r="H6" s="56" t="s">
+      <c r="G6" s="55" t="s">
         <v>170</v>
       </c>
-      <c r="I6" s="56" t="s">
+      <c r="H6" s="54" t="s">
         <v>171</v>
       </c>
-      <c r="J6" s="56" t="s">
+      <c r="I6" s="54" t="s">
         <v>172</v>
       </c>
-      <c r="K6" s="56" t="s">
-        <v>91</v>
-      </c>
-      <c r="L6" s="56" t="s">
+      <c r="J6" s="54" t="s">
         <v>173</v>
       </c>
+      <c r="K6" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="L6" s="54" t="s">
+        <v>174</v>
+      </c>
       <c r="M6" s="31" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" s="32" customFormat="1" ht="27.75" customHeight="1" spans="1:13">
       <c r="A7" s="31" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>166</v>
-      </c>
-      <c r="E7" s="56" t="s">
-        <v>174</v>
-      </c>
-      <c r="F7" s="56" t="s">
+        <v>167</v>
+      </c>
+      <c r="E7" s="54" t="s">
         <v>175</v>
       </c>
-      <c r="G7" s="57" t="s">
-        <v>169</v>
-      </c>
-      <c r="H7" s="56" t="s">
+      <c r="F7" s="54" t="s">
         <v>176</v>
       </c>
-      <c r="I7" s="56" t="s">
-        <v>171</v>
-      </c>
-      <c r="J7" s="56" t="s">
+      <c r="G7" s="55" t="s">
+        <v>170</v>
+      </c>
+      <c r="H7" s="54" t="s">
         <v>177</v>
       </c>
-      <c r="K7" s="56" t="s">
-        <v>91</v>
-      </c>
-      <c r="L7" s="56" t="s">
+      <c r="I7" s="54" t="s">
+        <v>172</v>
+      </c>
+      <c r="J7" s="54" t="s">
         <v>178</v>
       </c>
+      <c r="K7" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="L7" s="54" t="s">
+        <v>179</v>
+      </c>
       <c r="M7" s="31" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" s="32" customFormat="1" ht="27.75" customHeight="1" spans="1:13">
       <c r="A8" s="31" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>166</v>
-      </c>
-      <c r="E8" s="56" t="s">
-        <v>179</v>
-      </c>
-      <c r="F8" s="56" t="s">
+        <v>167</v>
+      </c>
+      <c r="E8" s="54" t="s">
         <v>180</v>
       </c>
-      <c r="G8" s="57" t="s">
-        <v>169</v>
-      </c>
-      <c r="H8" s="56" t="s">
+      <c r="F8" s="54" t="s">
         <v>181</v>
       </c>
-      <c r="I8" s="56" t="s">
-        <v>171</v>
-      </c>
-      <c r="J8" s="56" t="s">
+      <c r="G8" s="55" t="s">
+        <v>170</v>
+      </c>
+      <c r="H8" s="54" t="s">
         <v>182</v>
       </c>
-      <c r="K8" s="56" t="s">
-        <v>91</v>
-      </c>
-      <c r="L8" s="56" t="s">
+      <c r="I8" s="54" t="s">
+        <v>172</v>
+      </c>
+      <c r="J8" s="54" t="s">
         <v>183</v>
       </c>
+      <c r="K8" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="L8" s="54" t="s">
+        <v>184</v>
+      </c>
       <c r="M8" s="31" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="31" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="31" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H10" s="31" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J10" s="31" t="s">
         <v>24</v>
       </c>
       <c r="K10" s="31" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L10" s="31" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N10" s="31" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="31" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H11" s="31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J11" s="31" t="s">
         <v>24</v>
@@ -6377,22 +6376,22 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="31" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H12" s="31" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J12" s="31" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K12" s="31">
         <v>111111</v>
@@ -6400,19 +6399,19 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="31" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H13" s="31" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="J13" s="31">
         <v>100</v>
@@ -6423,82 +6422,82 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="31" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H14" s="31" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="31" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H15" s="31" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J15" s="31" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K15" s="31" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N15" s="31" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="31" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H16" s="31" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J16" s="31" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K16" s="31" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="31" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H17" s="31" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J17" s="31" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K17" s="31">
         <v>111111</v>
@@ -6506,19 +6505,19 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="31" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H18" s="31" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J18" s="31">
         <v>1010</v>
@@ -6529,22 +6528,22 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="31" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H19" s="31" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J19" s="31" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K19" s="31">
         <v>111111</v>
@@ -6552,353 +6551,347 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="31" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B20" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="C20" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="C20" s="31" t="s">
-        <v>139</v>
-      </c>
       <c r="F20" s="31" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H20" s="31" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L20" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="M20" s="60" t="s">
-        <v>213</v>
+        <v>119</v>
+      </c>
+      <c r="M20" s="35" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="31" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B21" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="C21" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="C21" s="31" t="s">
-        <v>139</v>
-      </c>
       <c r="F21" s="31" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H21" s="31" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L21" s="31" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M21" s="31" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="31" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B22" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="C22" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="C22" s="31" t="s">
-        <v>139</v>
-      </c>
       <c r="F22" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="H22" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="L22" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="M22" s="31" t="s">
         <v>217</v>
-      </c>
-      <c r="H22" s="31" t="s">
-        <v>218</v>
-      </c>
-      <c r="L22" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="M22" s="31" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="31" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B23" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="C23" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="C23" s="31" t="s">
-        <v>139</v>
-      </c>
       <c r="F23" s="31" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H23" s="31" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L23" s="31" t="s">
         <v>24</v>
       </c>
       <c r="M23" s="31" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="24" s="31" customFormat="1" spans="1:13">
       <c r="A24" s="31" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B24" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="C24" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="C24" s="31" t="s">
-        <v>139</v>
-      </c>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
       <c r="F24" s="31" t="s">
-        <v>221</v>
-      </c>
-      <c r="G24" s="31"/>
+        <v>222</v>
+      </c>
       <c r="H24" s="31" t="s">
-        <v>222</v>
-      </c>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
+        <v>223</v>
+      </c>
       <c r="L24" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="M24" s="61">
+      <c r="M24" s="50">
         <v>123456</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="31" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B25" s="31" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="31" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="31" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B27" s="31" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="31" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B28" s="31" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C28" s="31" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="31" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C29" s="31" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="31" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B30" s="31" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C30" s="31" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="31" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B31" s="31" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="31" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B32" s="31" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="31" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B33" s="31" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C33" s="31" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="31" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B34" s="31" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C34" s="31" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="31" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B35" s="31" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C35" s="31" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="31" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B36" s="31" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C36" s="31" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G36" s="31" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J36" s="31" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K36" s="31" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L36" s="31" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="31" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B37" s="31" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="31" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B38" s="31" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="31" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B39" s="31" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="31" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B40" s="31" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="31" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B41" s="31" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="31" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B42" s="31" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="31" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B43" s="31" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="31" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="31" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B45" s="31" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C45" s="31" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G45" s="31" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H45" s="31" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="J45" s="31" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K45" s="31" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="31" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B46" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="G46" s="58" t="s">
-        <v>239</v>
+      <c r="G46" s="56" t="s">
+        <v>240</v>
       </c>
       <c r="J46" s="31" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K46" s="31">
         <v>111111</v>
@@ -6916,8 +6909,8 @@
   <sheetPr/>
   <dimension ref="A2:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -6939,85 +6932,85 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="53" t="s">
-        <v>245</v>
+      <c r="A5" s="52" t="s">
+        <v>246</v>
       </c>
       <c r="B5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C5" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="53" t="s">
-        <v>249</v>
+      <c r="A6" s="52" t="s">
+        <v>250</v>
       </c>
       <c r="B6" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C6" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="54" t="s">
-        <v>253</v>
+      <c r="A7" s="53" t="s">
+        <v>254</v>
       </c>
       <c r="B7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B11" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>260</v>
-      </c>
-      <c r="B12" s="55" t="s">
         <v>261</v>
       </c>
+      <c r="B12" s="7" t="s">
+        <v>262</v>
+      </c>
       <c r="C12" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -7051,52 +7044,52 @@
   <sheetData>
     <row r="1" s="30" customFormat="1" ht="14.25" spans="1:12">
       <c r="A1" s="30" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>264</v>
-      </c>
-      <c r="E1" s="50" t="s">
         <v>265</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="E1" s="49" t="s">
         <v>266</v>
       </c>
-      <c r="G1" s="50" t="s">
+      <c r="F1" s="49" t="s">
         <v>267</v>
       </c>
-      <c r="H1" s="50" t="s">
-        <v>138</v>
-      </c>
-      <c r="I1" s="52"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
+      <c r="G1" s="49" t="s">
+        <v>268</v>
+      </c>
+      <c r="H1" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="I1" s="51"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D2" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="E2" s="31" t="s">
         <v>269</v>
       </c>
-      <c r="E2" s="31" t="s">
-        <v>268</v>
-      </c>
       <c r="F2" s="31" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -7107,16 +7100,16 @@
       <c r="A3" s="32"/>
       <c r="B3" s="32"/>
       <c r="C3" s="31" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F3" s="31" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G3" s="31">
         <v>0</v>
@@ -7127,16 +7120,16 @@
       <c r="A4" s="32"/>
       <c r="B4" s="32"/>
       <c r="C4" s="31" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F4" s="31" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G4" s="31">
         <v>0</v>
@@ -7147,16 +7140,16 @@
       <c r="A5" s="32"/>
       <c r="B5" s="32"/>
       <c r="C5" s="31" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F5" s="31" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G5" s="31">
         <v>0</v>
@@ -7167,16 +7160,16 @@
       <c r="A6" s="32"/>
       <c r="B6" s="32"/>
       <c r="C6" s="31" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F6" s="31" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G6" s="31">
         <v>0</v>
@@ -7187,16 +7180,16 @@
       <c r="A7" s="32"/>
       <c r="B7" s="32"/>
       <c r="C7" s="31" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F7" s="31" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G7" s="31">
         <v>0</v>
@@ -7207,16 +7200,16 @@
       <c r="A8" s="32"/>
       <c r="B8" s="32"/>
       <c r="C8" s="31" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F8" s="31" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G8" s="31">
         <v>0</v>
@@ -7227,16 +7220,16 @@
       <c r="A9" s="32"/>
       <c r="B9" s="32"/>
       <c r="C9" s="31" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F9" s="31" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G9" s="31">
         <v>0</v>
@@ -7247,16 +7240,16 @@
       <c r="A10" s="32"/>
       <c r="B10" s="32"/>
       <c r="C10" s="31" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F10" s="31" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G10" s="31">
         <v>0</v>
@@ -7267,16 +7260,16 @@
       <c r="A11" s="32"/>
       <c r="B11" s="32"/>
       <c r="C11" s="31" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F11" s="31" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G11" s="31">
         <v>0</v>
@@ -7287,16 +7280,16 @@
       <c r="A12" s="32"/>
       <c r="B12" s="32"/>
       <c r="C12" s="31" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F12" s="31" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G12" s="31">
         <v>8020</v>
@@ -7307,16 +7300,16 @@
       <c r="A13" s="32"/>
       <c r="B13" s="32"/>
       <c r="C13" s="31" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D13" s="31" t="s">
+        <v>289</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>269</v>
+      </c>
+      <c r="F13" s="31" t="s">
         <v>288</v>
-      </c>
-      <c r="E13" s="31" t="s">
-        <v>268</v>
-      </c>
-      <c r="F13" s="31" t="s">
-        <v>287</v>
       </c>
       <c r="G13" s="31">
         <v>0</v>
@@ -7327,16 +7320,16 @@
       <c r="A14" s="32"/>
       <c r="B14" s="32"/>
       <c r="C14" s="31" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F14" s="31" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G14" s="31">
         <v>0</v>
@@ -7347,16 +7340,16 @@
       <c r="A15" s="32"/>
       <c r="B15" s="32"/>
       <c r="C15" s="31" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F15" s="31" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G15" s="31">
         <v>0</v>
@@ -7367,38 +7360,38 @@
       <c r="A16" s="32"/>
       <c r="B16" s="32"/>
       <c r="C16" s="31" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F16" s="31" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G16" s="31">
         <v>0</v>
       </c>
       <c r="H16" s="31" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="32"/>
       <c r="B17" s="32"/>
       <c r="C17" s="31" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F17" s="31" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G17" s="31">
         <v>0</v>
@@ -7409,16 +7402,16 @@
       <c r="A18" s="32"/>
       <c r="B18" s="32"/>
       <c r="C18" s="31" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D18" s="31" t="s">
+        <v>298</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>296</v>
+      </c>
+      <c r="F18" s="31" t="s">
         <v>297</v>
-      </c>
-      <c r="E18" s="31" t="s">
-        <v>295</v>
-      </c>
-      <c r="F18" s="31" t="s">
-        <v>296</v>
       </c>
       <c r="G18" s="31">
         <v>0</v>
@@ -7429,16 +7422,16 @@
       <c r="A19" s="32"/>
       <c r="B19" s="32"/>
       <c r="C19" s="31" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E19" s="31" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F19" s="31" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G19" s="31">
         <v>0</v>
@@ -7449,16 +7442,16 @@
       <c r="A20" s="32"/>
       <c r="B20" s="32"/>
       <c r="C20" s="31" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E20" s="31" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F20" s="31" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G20" s="31">
         <v>22</v>
@@ -7469,16 +7462,16 @@
       <c r="A21" s="32"/>
       <c r="B21" s="32"/>
       <c r="C21" s="31" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E21" s="31" t="s">
+        <v>304</v>
+      </c>
+      <c r="F21" s="31" t="s">
         <v>303</v>
-      </c>
-      <c r="F21" s="31" t="s">
-        <v>302</v>
       </c>
       <c r="G21" s="31">
         <v>443</v>
@@ -7487,22 +7480,22 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B22" s="32" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D22" s="31" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E22" s="31" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F22" s="31" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G22" s="31">
         <v>0</v>
@@ -7513,16 +7506,16 @@
       <c r="A23" s="32"/>
       <c r="B23" s="32"/>
       <c r="C23" s="31" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D23" s="31" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E23" s="31" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F23" s="31" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G23" s="31">
         <v>0</v>
@@ -7533,16 +7526,16 @@
       <c r="A24" s="32"/>
       <c r="B24" s="32"/>
       <c r="C24" s="31" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D24" s="31" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E24" s="31" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F24" s="31" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G24" s="31">
         <v>0</v>
@@ -7553,16 +7546,16 @@
       <c r="A25" s="32"/>
       <c r="B25" s="32"/>
       <c r="C25" s="31" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D25" s="31" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E25" s="31" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F25" s="31" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G25" s="31">
         <v>0</v>
@@ -7573,16 +7566,16 @@
       <c r="A26" s="32"/>
       <c r="B26" s="32"/>
       <c r="C26" s="31" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D26" s="31" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E26" s="31" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F26" s="31" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G26" s="31">
         <v>0</v>
@@ -7593,16 +7586,16 @@
       <c r="A27" s="32"/>
       <c r="B27" s="32"/>
       <c r="C27" s="31" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D27" s="31" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E27" s="31" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F27" s="31" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G27" s="31">
         <v>0</v>
@@ -7613,16 +7606,16 @@
       <c r="A28" s="32"/>
       <c r="B28" s="32"/>
       <c r="C28" s="31" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D28" s="31" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E28" s="31" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F28" s="31" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G28" s="31">
         <v>0</v>
@@ -7633,16 +7626,16 @@
       <c r="A29" s="32"/>
       <c r="B29" s="32"/>
       <c r="C29" s="31" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D29" s="31" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E29" s="31" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F29" s="31" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G29" s="31">
         <v>0</v>
@@ -7653,16 +7646,16 @@
       <c r="A30" s="32"/>
       <c r="B30" s="32"/>
       <c r="C30" s="31" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D30" s="31" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E30" s="31" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F30" s="31" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G30" s="31">
         <v>0</v>
@@ -7673,16 +7666,16 @@
       <c r="A31" s="32"/>
       <c r="B31" s="32"/>
       <c r="C31" s="31" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D31" s="31" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E31" s="31" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F31" s="31" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G31" s="31">
         <v>0</v>
@@ -7693,16 +7686,16 @@
       <c r="A32" s="32"/>
       <c r="B32" s="32"/>
       <c r="C32" s="31" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D32" s="31" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E32" s="31" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F32" s="31" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G32" s="31">
         <v>0</v>
@@ -7713,16 +7706,16 @@
       <c r="A33" s="32"/>
       <c r="B33" s="32"/>
       <c r="C33" s="31" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D33" s="31" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E33" s="31" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F33" s="31" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G33" s="31">
         <v>0</v>
@@ -7733,16 +7726,16 @@
       <c r="A34" s="32"/>
       <c r="B34" s="32"/>
       <c r="C34" s="31" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D34" s="31" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E34" s="31" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F34" s="31" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G34" s="31">
         <v>0</v>
@@ -7753,16 +7746,16 @@
       <c r="A35" s="32"/>
       <c r="B35" s="32"/>
       <c r="C35" s="31" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D35" s="31" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E35" s="31" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F35" s="31" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G35" s="31">
         <v>0</v>
@@ -7773,16 +7766,16 @@
       <c r="A36" s="32"/>
       <c r="B36" s="32"/>
       <c r="C36" s="31" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D36" s="31" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E36" s="31" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F36" s="31" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G36" s="31">
         <v>0</v>
@@ -7793,18 +7786,18 @@
       <c r="A37" s="32"/>
       <c r="B37" s="32"/>
       <c r="C37" s="31" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D37" s="31" t="s">
-        <v>326</v>
-      </c>
-      <c r="E37" s="51">
+        <v>327</v>
+      </c>
+      <c r="E37" s="50">
         <v>19007</v>
       </c>
       <c r="F37" s="31" t="s">
-        <v>327</v>
-      </c>
-      <c r="G37" s="51">
+        <v>328</v>
+      </c>
+      <c r="G37" s="50">
         <v>19007</v>
       </c>
       <c r="H37" s="31"/>
@@ -7813,18 +7806,18 @@
       <c r="A38" s="32"/>
       <c r="B38" s="32"/>
       <c r="C38" s="31" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D38" s="31" t="s">
-        <v>326</v>
-      </c>
-      <c r="E38" s="51">
+        <v>327</v>
+      </c>
+      <c r="E38" s="50">
         <v>9528</v>
       </c>
       <c r="F38" s="31" t="s">
-        <v>328</v>
-      </c>
-      <c r="G38" s="51">
+        <v>329</v>
+      </c>
+      <c r="G38" s="50">
         <v>9528</v>
       </c>
       <c r="H38" s="31"/>
@@ -7849,8 +7842,8 @@
   <sheetPr/>
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7870,197 +7863,200 @@
         <v>16</v>
       </c>
       <c r="E1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="J1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" ht="27" spans="1:11">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H2">
         <v>13792</v>
       </c>
       <c r="I2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="J2" s="48" t="s">
-        <v>339</v>
-      </c>
-      <c r="K2" s="49" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="3" ht="40.5" spans="1:11">
+      <c r="K2" s="4" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="3" ht="54" spans="1:11">
       <c r="A3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D3" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G3" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H3">
         <v>13792</v>
       </c>
       <c r="I3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="J3" s="48"/>
-      <c r="K3" s="49"/>
+      <c r="K3" s="4"/>
     </row>
     <row r="4" ht="24" customHeight="1" spans="1:11">
       <c r="A4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" t="s">
         <v>78</v>
       </c>
-      <c r="B4" t="s">
-        <v>77</v>
-      </c>
       <c r="C4" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D4" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G4" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H4">
         <v>13792</v>
       </c>
       <c r="I4" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="J4" s="48" t="s">
-        <v>349</v>
-      </c>
-      <c r="K4" s="49"/>
+        <v>350</v>
+      </c>
+      <c r="K4" s="4"/>
     </row>
     <row r="5" ht="30.75" customHeight="1" spans="1:11">
       <c r="A5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" t="s">
         <v>78</v>
       </c>
-      <c r="B5" t="s">
-        <v>77</v>
-      </c>
       <c r="C5" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D5" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F5" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G5" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H5">
         <v>13792</v>
       </c>
       <c r="I5" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="J5" s="48"/>
-      <c r="K5" s="49"/>
+      <c r="K5" s="4"/>
     </row>
     <row r="6" ht="16.5" customHeight="1"/>
-    <row r="7" ht="27" spans="4:8">
+    <row r="7" ht="27" spans="3:10">
+      <c r="C7" t="s">
+        <v>355</v>
+      </c>
       <c r="D7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E7" s="43" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="G7">
         <v>28758868</v>
       </c>
-      <c r="H7" t="s">
-        <v>130</v>
+      <c r="J7" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="4:5">
       <c r="D10" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E10" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="11" spans="4:6">
       <c r="D11" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E11">
         <v>18717846640</v>
       </c>
       <c r="F11" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="12" spans="4:5">
       <c r="D12" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E12">
         <v>13817728541</v>
@@ -8068,36 +8064,36 @@
     </row>
     <row r="15" s="31" customFormat="1" ht="64.5" customHeight="1" spans="2:11">
       <c r="B15" s="31" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C15" s="44" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D15" s="44" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E15" s="45" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="G15" s="31" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H15" s="31" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="I15" s="31" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="J15" s="35" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="K15" s="31" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="16" ht="36.75" customHeight="1" spans="2:11">
       <c r="B16" s="31" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C16" s="46"/>
       <c r="D16" s="46"/>
@@ -8106,13 +8102,13 @@
       <c r="G16" s="31"/>
       <c r="H16" s="31"/>
       <c r="I16" s="31" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="J16" s="31" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="K16" s="31" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
   </sheetData>
@@ -8125,7 +8121,7 @@
     <mergeCell ref="K2:K5"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E7" r:id="rId2" display="http://61.172.197.212:13174/&#10;"/>
+    <hyperlink ref="E7" r:id="rId2" display="http://61.172.197.212:13174/&#10;" tooltip="http://61.172.197.212:13174/&#10;"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -8161,16 +8157,16 @@
   <sheetData>
     <row r="1" s="30" customFormat="1" ht="34.5" customHeight="1" spans="1:9">
       <c r="A1" s="30" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="G1" s="33" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="H1" s="33" t="s">
         <v>19</v>
@@ -8181,245 +8177,245 @@
     </row>
     <row r="2" ht="53.25" customHeight="1" spans="1:6">
       <c r="A2" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="B2" s="31" t="s">
-        <v>139</v>
-      </c>
       <c r="C2" s="34" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F2" s="35"/>
     </row>
     <row r="3" ht="30.75" customHeight="1" spans="3:4">
       <c r="C3" s="34" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" ht="27.75" customHeight="1" spans="1:4">
       <c r="A4" s="36" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" ht="26.25" customHeight="1" spans="3:4">
       <c r="C5" s="38" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" ht="45.75" customHeight="1" spans="1:6">
       <c r="A6" s="31" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E6" s="35"/>
       <c r="F6" s="35"/>
     </row>
     <row r="7" ht="30.75" customHeight="1" spans="3:5">
       <c r="C7" s="34" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="8" ht="27.75" customHeight="1" spans="3:4">
       <c r="C8" s="37" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" ht="26.25" customHeight="1" spans="3:4">
       <c r="C9" s="38" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1"/>
     <row r="11" ht="33" customHeight="1"/>
     <row r="12" ht="54" spans="1:9">
       <c r="A12" s="31" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E12" s="35" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="F12" s="35" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="G12" s="32">
         <v>2200</v>
       </c>
       <c r="H12" s="32" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="I12" s="31" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" ht="40.5" spans="3:9">
       <c r="C13" s="39" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E13" s="35" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="F13" s="35" t="s">
+        <v>391</v>
+      </c>
+      <c r="H13" s="32" t="s">
         <v>389</v>
       </c>
-      <c r="H13" s="32" t="s">
-        <v>387</v>
-      </c>
       <c r="I13" s="31" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="14" ht="54" spans="3:9">
       <c r="C14" s="39" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E14" s="35" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="F14" s="35" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="H14" s="32" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="I14" s="31" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="15" ht="67.5" spans="3:9">
       <c r="C15" s="39" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E15" s="35" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="F15" s="35" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="H15" s="32" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="I15" s="31" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="16" spans="3:9">
       <c r="C16" s="40" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="H16" s="32" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="I16" s="31" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="17" spans="3:9">
       <c r="C17" s="40" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="H17" s="32" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="I17" s="31" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="18" spans="3:9">
       <c r="C18" s="41" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="H18" s="32" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="I18" s="31" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="19" spans="3:9">
       <c r="C19" s="41" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="H19" s="32" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="I19" s="31" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="20" spans="3:8">
       <c r="C20" s="42" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="H20" s="32" t="s">
         <v>24</v>
@@ -8427,10 +8423,10 @@
     </row>
     <row r="21" spans="3:8">
       <c r="C21" s="31" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H21" s="32" t="s">
         <v>24</v>
@@ -8438,10 +8434,10 @@
     </row>
     <row r="22" spans="3:7">
       <c r="C22" s="31" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D22" s="31" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="G22" s="32">
         <v>23</v>
@@ -8449,653 +8445,653 @@
     </row>
     <row r="23" spans="3:9">
       <c r="C23" s="31" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="D23" s="31" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="G23" s="32">
         <v>2200</v>
       </c>
       <c r="H23" s="32" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="I23" s="31" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="24" spans="3:9">
       <c r="C24" s="31" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D24" s="31" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="G24" s="32">
         <v>2200</v>
       </c>
       <c r="H24" s="32" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="I24" s="31" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="25" spans="3:9">
       <c r="C25" s="31" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D25" s="31" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G25" s="32">
         <v>2200</v>
       </c>
       <c r="H25" s="32" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="I25" s="31" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="31" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C26" s="39" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D26" s="31" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E26" s="31" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="F26" s="31" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="G26" s="32">
         <v>2200</v>
       </c>
       <c r="H26" s="32" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="I26" s="31" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="27" spans="3:9">
       <c r="C27" s="39" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D27" s="31" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E27" s="31" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="F27" s="31" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="G27" s="32">
         <v>2200</v>
       </c>
       <c r="H27" s="32" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="I27" s="31" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="28" spans="3:9">
       <c r="C28" s="40" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D28" s="31" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="G28" s="32">
         <v>2200</v>
       </c>
       <c r="H28" s="32" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="I28" s="31" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="29" spans="3:9">
       <c r="C29" s="40" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="D29" s="31" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="G29" s="32">
         <v>2200</v>
       </c>
       <c r="H29" s="32" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="I29" s="31" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="30" spans="3:9">
       <c r="C30" s="41" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D30" s="31" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="G30" s="32">
         <v>2200</v>
       </c>
       <c r="H30" s="32" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="I30" s="31" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="31" spans="3:9">
       <c r="C31" s="41" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="D31" s="31" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="G31" s="32">
         <v>2200</v>
       </c>
       <c r="H31" s="32" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="I31" s="31" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="31" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B38" s="31" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C38" s="31" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D38" s="31" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="G38" s="32">
         <v>12525</v>
       </c>
       <c r="H38" s="32" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="I38" s="32" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="39" spans="3:9">
       <c r="C39" s="31" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="D39" s="31" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="G39" s="32">
         <v>12525</v>
       </c>
       <c r="H39" s="32" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="I39" s="32" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="40" spans="3:9">
       <c r="C40" s="31" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D40" s="31" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="G40" s="32">
         <v>12525</v>
       </c>
       <c r="H40" s="32" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="I40" s="32" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="41" spans="3:9">
       <c r="C41" s="31" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="D41" s="31" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G41" s="32">
         <v>12525</v>
       </c>
       <c r="H41" s="32" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="I41" s="32" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="42" spans="3:9">
       <c r="C42" s="31" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="D42" s="31" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="E42" s="31" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="G42" s="32">
         <v>12525</v>
       </c>
       <c r="H42" s="32" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="I42" s="32" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="43" spans="3:9">
       <c r="C43" s="31" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="D43" s="31" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G43" s="32">
         <v>12525</v>
       </c>
       <c r="H43" s="32" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="I43" s="32" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="44" spans="3:9">
       <c r="C44" s="31" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="D44" s="31" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="G44" s="32">
         <v>12525</v>
       </c>
       <c r="H44" s="32" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="I44" s="32" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="45" spans="3:9">
       <c r="C45" s="31" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="D45" s="31" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="G45" s="32">
         <v>12525</v>
       </c>
       <c r="H45" s="32" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="I45" s="32" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="46" spans="3:4">
       <c r="C46" s="31" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="D46" s="31" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="47" spans="3:4">
       <c r="C47" s="31" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D47" s="31" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="48" spans="3:4">
       <c r="C48" s="31" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D48" s="31" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="49" spans="3:4">
       <c r="C49" s="31" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="D49" s="31" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="31" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B51" s="31" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C51" s="31" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D51" s="31" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="G51" s="32">
         <v>12525</v>
       </c>
       <c r="H51" s="32" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="I51" s="32" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="52" spans="3:9">
       <c r="C52" s="31" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="D52" s="31" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="G52" s="32">
         <v>12525</v>
       </c>
       <c r="H52" s="32" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="I52" s="32" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="53" spans="3:9">
       <c r="C53" s="31" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D53" s="31" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="G53" s="32">
         <v>12525</v>
       </c>
       <c r="H53" s="32" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="I53" s="32" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="54" spans="3:9">
       <c r="C54" s="31" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="D54" s="31" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G54" s="32">
         <v>12525</v>
       </c>
       <c r="H54" s="32" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="I54" s="32" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="55" spans="3:9">
       <c r="C55" s="31" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="D55" s="31" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="G55" s="32">
         <v>12525</v>
       </c>
       <c r="H55" s="32" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="I55" s="32" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="56" spans="3:9">
       <c r="C56" s="31" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="D56" s="31" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F56" s="31" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="G56" s="32">
         <v>12525</v>
       </c>
       <c r="H56" s="32" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="I56" s="32" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="57" spans="3:9">
       <c r="C57" s="31" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="D57" s="31" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="G57" s="32">
         <v>12525</v>
       </c>
       <c r="H57" s="32" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="I57" s="32" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="58" spans="3:9">
       <c r="C58" s="31" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="D58" s="31" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="G58" s="32">
         <v>12525</v>
       </c>
       <c r="H58" s="32" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="I58" s="32" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="59" spans="3:9">
       <c r="C59" s="31" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="D59" s="31" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="G59" s="32">
         <v>12525</v>
       </c>
       <c r="H59" s="32" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="I59" s="32" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="60" spans="3:9">
       <c r="C60" s="31" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D60" s="31" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="G60" s="32">
         <v>12525</v>
       </c>
       <c r="H60" s="32" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="I60" s="32" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="61" spans="3:9">
       <c r="C61" s="31" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D61" s="31" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="G61" s="32">
         <v>22</v>
       </c>
       <c r="H61" s="32" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="I61" s="32" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="62" spans="3:9">
       <c r="C62" s="31" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="D62" s="31" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="G62" s="32">
         <v>22</v>
       </c>
       <c r="H62" s="32" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="I62" s="32" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="63" spans="3:4">
       <c r="C63" s="31" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="D63" s="31" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="31" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B70" s="31" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C70" s="31" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="D70" s="31" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="E70" s="31" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="31" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B71" s="31" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="C71" s="31" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="D71" s="31" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="31" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B78" s="38" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C78" s="31" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D78" s="32">
         <v>3389</v>
       </c>
       <c r="E78" s="32" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F78" s="31" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="31" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B79" s="31" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C79" s="31" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="80" ht="27" spans="1:3">
       <c r="A80" s="31" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="C80" s="35" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="81" ht="27" spans="3:3">
       <c r="C81" s="35" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="82" ht="27" spans="3:3">
       <c r="C82" s="35" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="83" ht="27" spans="3:3">
       <c r="C83" s="35" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>

--- a/HTzh信息管理.xlsx
+++ b/HTzh信息管理.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28215" windowHeight="11490" tabRatio="883" activeTab="7"/>
+    <workbookView windowWidth="28695" windowHeight="13050" tabRatio="883" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="现货仓单" sheetId="1" r:id="rId1"/>
@@ -840,7 +840,7 @@
     <t>192.168.30.2</t>
   </si>
   <si>
-    <t>silver#huatong /trade</t>
+    <t>silver#huatong/trade</t>
   </si>
   <si>
     <t>web02</t>
@@ -1275,8 +1275,9 @@
     <t>手机端行情服务器在线人数查看</t>
   </si>
   <si>
-    <t xml:space="preserve">http://61.172.197.212:13174/
-</t>
+    <t>网页服务器端查看人数：http://61.172.197.212:13174/
+实际行情服务器端的IP和端口： 101.226.207.74:13176
+（这个202.109.110.220:13176已不再使用）</t>
   </si>
   <si>
     <t>shhtbyadmin</t>
@@ -1306,8 +1307,8 @@
     <t>windows7</t>
   </si>
   <si>
-    <t>192.168.30.42:13180 内网IP及端口：测试行情
-27.115.59.166:13170 外网IP及端口：模拟行情</t>
+    <t>27.115.59.166:13170 外网IP及端口：模拟行情
+192.168.30.42:13180 内网IP及端口：测试行情,2017.6.20 张迪让注释掉</t>
   </si>
   <si>
     <t>password</t>
@@ -2314,10 +2315,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="42">
     <font>
@@ -2449,6 +2450,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -2465,15 +2489,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2487,10 +2512,41 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2508,31 +2564,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -2542,37 +2573,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2684,7 +2685,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2702,43 +2733,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2768,19 +2763,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2792,67 +2835,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2964,54 +2965,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3030,8 +2983,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3061,16 +3029,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="32" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3079,135 +3080,135 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3307,7 +3308,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3365,9 +3366,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3598,7 +3596,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="590550" y="5314950"/>
+          <a:off x="590550" y="5829300"/>
           <a:ext cx="11008995" cy="6437630"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3922,17 +3920,17 @@
       </c>
     </row>
     <row r="3" spans="2:2">
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="70" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="2:2">
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="70" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:2">
-      <c r="B5" s="71" t="s">
+      <c r="B5" s="70" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3940,12 +3938,12 @@
       <c r="B6" s="48"/>
     </row>
     <row r="7" spans="2:2">
-      <c r="B7" s="71" t="s">
+      <c r="B7" s="70" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="2:2">
-      <c r="B8" s="71" t="s">
+      <c r="B8" s="70" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3953,7 +3951,7 @@
       <c r="B9" s="48"/>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="71" t="s">
+      <c r="B10" s="70" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3964,17 +3962,17 @@
       <c r="B12" s="48"/>
     </row>
     <row r="13" spans="2:2">
-      <c r="B13" s="71" t="s">
+      <c r="B13" s="70" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="2:2">
-      <c r="B14" s="71" t="s">
+      <c r="B14" s="70" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="2:2">
-      <c r="B15" s="71" t="s">
+      <c r="B15" s="70" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3982,27 +3980,27 @@
       <c r="B16" s="48"/>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="71" t="s">
+      <c r="B17" s="70" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="71" t="s">
+      <c r="B18" s="70" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="71" t="s">
+      <c r="B19" s="70" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="71" t="s">
+      <c r="B20" s="70" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="71" t="s">
+      <c r="B21" s="70" t="s">
         <v>15</v>
       </c>
     </row>
@@ -4019,7 +4017,7 @@
   <dimension ref="B1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -5064,7 +5062,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4"/>
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="71" t="s">
         <v>598</v>
       </c>
     </row>
@@ -5083,7 +5081,7 @@
   <dimension ref="B1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -5187,8 +5185,8 @@
   <sheetPr/>
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -5402,28 +5400,28 @@
       <c r="B20" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="66" t="s">
+      <c r="D20" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="66" t="s">
+      <c r="E20" s="35" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="21" ht="14.25" spans="1:1">
-      <c r="A21" s="67"/>
+      <c r="A21" s="66"/>
     </row>
     <row r="24" ht="14.25" spans="1:1">
-      <c r="A24" s="68" t="s">
+      <c r="A24" s="67" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="25" ht="14.25" spans="1:1">
-      <c r="A25" s="69" t="s">
+      <c r="A25" s="68" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="26" ht="14.25" spans="1:1">
-      <c r="A26" s="68" t="s">
+      <c r="A26" s="67" t="s">
         <v>55</v>
       </c>
     </row>
@@ -5431,7 +5429,7 @@
       <c r="A27"/>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="70" t="s">
+      <c r="A28" s="69" t="s">
         <v>56</v>
       </c>
       <c r="B28" s="31" t="s">
@@ -5439,7 +5437,7 @@
       </c>
     </row>
     <row r="29" ht="14.25" spans="1:2">
-      <c r="A29" s="69" t="s">
+      <c r="A29" s="68" t="s">
         <v>58</v>
       </c>
       <c r="B29" s="31" t="s">
@@ -5513,7 +5511,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A28" r:id="rId1" display="华通官网：www.huatongsilver.com 真实IP地址： 122.144.131.128"/>
-    <hyperlink ref="B20" r:id="rId2" display="http://192.168.30.2/adminweb,  "/>
+    <hyperlink ref="B20" r:id="rId2" display="http://192.168.30.2/adminweb,  " tooltip="http://192.168.30.2/adminweb,  "/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -5719,7 +5717,7 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6002,8 +6000,8 @@
   <sheetPr/>
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7842,8 +7840,8 @@
   <sheetPr/>
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -8015,7 +8013,7 @@
       <c r="K5" s="4"/>
     </row>
     <row r="6" ht="16.5" customHeight="1"/>
-    <row r="7" ht="27" spans="3:10">
+    <row r="7" ht="67.5" spans="3:10">
       <c r="C7" t="s">
         <v>355</v>
       </c>
@@ -8120,9 +8118,6 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K2:K5"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="E7" r:id="rId2" display="http://61.172.197.212:13174/&#10;" tooltip="http://61.172.197.212:13174/&#10;"/>
-  </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
